--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Elvis Molina.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Elvis Molina.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,11 +398,6 @@
           <t>Revisar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Observación</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Elvis Molina.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Elvis Molina.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Porc_trans</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cost_trans</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Porc_producto</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Valor_producto</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Valor_Neto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Part_profesional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Revisar</t>
         </is>
@@ -424,9 +444,21 @@
         <v>38500</v>
       </c>
       <c r="F2">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G2">
+        <v>1386</v>
+      </c>
+      <c r="H2">
+        <v>0.106</v>
+      </c>
+      <c r="I2">
+        <v>4081</v>
+      </c>
+      <c r="J2">
+        <v>33033</v>
+      </c>
+      <c r="K2">
         <v>21175</v>
       </c>
     </row>
@@ -455,9 +487,21 @@
         <v>35000</v>
       </c>
       <c r="F3">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G3">
+        <v>1260</v>
+      </c>
+      <c r="H3">
+        <v>0.1166</v>
+      </c>
+      <c r="I3">
+        <v>4081</v>
+      </c>
+      <c r="J3">
+        <v>29659</v>
+      </c>
+      <c r="K3">
         <v>19250</v>
       </c>
     </row>
@@ -486,9 +530,21 @@
         <v>35000</v>
       </c>
       <c r="F4">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G4">
+        <v>1260</v>
+      </c>
+      <c r="H4">
+        <v>0.1166</v>
+      </c>
+      <c r="I4">
+        <v>4081</v>
+      </c>
+      <c r="J4">
+        <v>29659</v>
+      </c>
+      <c r="K4">
         <v>19250</v>
       </c>
     </row>
@@ -517,9 +573,21 @@
         <v>90000</v>
       </c>
       <c r="F5">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G5">
+        <v>3240</v>
+      </c>
+      <c r="H5">
+        <v>0.04534444444444444</v>
+      </c>
+      <c r="I5">
+        <v>4081</v>
+      </c>
+      <c r="J5">
+        <v>82679</v>
+      </c>
+      <c r="K5">
         <v>40500</v>
       </c>
     </row>
@@ -548,9 +616,18 @@
         <v>5000</v>
       </c>
       <c r="F6">
+        <v>0.036</v>
+      </c>
+      <c r="G6">
+        <v>180</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="J6">
+        <v>4820</v>
+      </c>
+      <c r="K6">
         <v>4820</v>
       </c>
     </row>
@@ -579,9 +656,21 @@
         <v>35000</v>
       </c>
       <c r="F7">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G7">
+        <v>1260</v>
+      </c>
+      <c r="H7">
+        <v>0.1166</v>
+      </c>
+      <c r="I7">
+        <v>4081</v>
+      </c>
+      <c r="J7">
+        <v>29659</v>
+      </c>
+      <c r="K7">
         <v>19250</v>
       </c>
     </row>
@@ -610,9 +699,21 @@
         <v>90000</v>
       </c>
       <c r="F8">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G8">
+        <v>3240</v>
+      </c>
+      <c r="H8">
+        <v>0.04534444444444444</v>
+      </c>
+      <c r="I8">
+        <v>4081</v>
+      </c>
+      <c r="J8">
+        <v>82679</v>
+      </c>
+      <c r="K8">
         <v>40500</v>
       </c>
     </row>
@@ -641,9 +742,21 @@
         <v>35000</v>
       </c>
       <c r="F9">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G9">
+        <v>1260</v>
+      </c>
+      <c r="H9">
+        <v>0.1166</v>
+      </c>
+      <c r="I9">
+        <v>4081</v>
+      </c>
+      <c r="J9">
+        <v>29659</v>
+      </c>
+      <c r="K9">
         <v>19250</v>
       </c>
     </row>
@@ -672,9 +785,21 @@
         <v>38500</v>
       </c>
       <c r="F10">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G10">
+        <v>1386</v>
+      </c>
+      <c r="H10">
+        <v>0.106</v>
+      </c>
+      <c r="I10">
+        <v>4081</v>
+      </c>
+      <c r="J10">
+        <v>33033</v>
+      </c>
+      <c r="K10">
         <v>21175</v>
       </c>
     </row>
@@ -703,9 +828,21 @@
         <v>28000</v>
       </c>
       <c r="F11">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G11">
+        <v>1008</v>
+      </c>
+      <c r="H11">
+        <v>0.14575</v>
+      </c>
+      <c r="I11">
+        <v>4081</v>
+      </c>
+      <c r="J11">
+        <v>22911</v>
+      </c>
+      <c r="K11">
         <v>15400</v>
       </c>
     </row>
@@ -734,9 +871,21 @@
         <v>38500</v>
       </c>
       <c r="F12">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G12">
+        <v>1386</v>
+      </c>
+      <c r="H12">
+        <v>0.106</v>
+      </c>
+      <c r="I12">
+        <v>4081</v>
+      </c>
+      <c r="J12">
+        <v>33033</v>
+      </c>
+      <c r="K12">
         <v>21175</v>
       </c>
     </row>
@@ -765,10 +914,22 @@
         <v>420000</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G13">
-        <v>231000</v>
+        <v>15120</v>
+      </c>
+      <c r="H13">
+        <v>0.1066452380952381</v>
+      </c>
+      <c r="I13">
+        <v>44791</v>
+      </c>
+      <c r="J13">
+        <v>360089</v>
+      </c>
+      <c r="K13">
+        <v>186209</v>
       </c>
     </row>
     <row r="14">
@@ -796,9 +957,21 @@
         <v>45000</v>
       </c>
       <c r="F14">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G14">
+        <v>1620</v>
+      </c>
+      <c r="H14">
+        <v>0.09068888888888889</v>
+      </c>
+      <c r="I14">
+        <v>4081</v>
+      </c>
+      <c r="J14">
+        <v>39299</v>
+      </c>
+      <c r="K14">
         <v>24750</v>
       </c>
     </row>
@@ -827,9 +1000,21 @@
         <v>28000</v>
       </c>
       <c r="F15">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.14575</v>
+      </c>
+      <c r="I15">
+        <v>4081</v>
+      </c>
+      <c r="J15">
+        <v>23919</v>
+      </c>
+      <c r="K15">
         <v>15400</v>
       </c>
     </row>
@@ -858,9 +1043,21 @@
         <v>55000</v>
       </c>
       <c r="F16">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.0742</v>
+      </c>
+      <c r="I16">
+        <v>4081</v>
+      </c>
+      <c r="J16">
+        <v>50919</v>
+      </c>
+      <c r="K16">
         <v>30250</v>
       </c>
     </row>
@@ -889,9 +1086,21 @@
         <v>38500</v>
       </c>
       <c r="F17">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.106</v>
+      </c>
+      <c r="I17">
+        <v>4081</v>
+      </c>
+      <c r="J17">
+        <v>34419</v>
+      </c>
+      <c r="K17">
         <v>21175</v>
       </c>
     </row>
@@ -920,9 +1129,21 @@
         <v>28000</v>
       </c>
       <c r="F18">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.14575</v>
+      </c>
+      <c r="I18">
+        <v>4081</v>
+      </c>
+      <c r="J18">
+        <v>23919</v>
+      </c>
+      <c r="K18">
         <v>15400</v>
       </c>
     </row>
@@ -951,9 +1172,21 @@
         <v>45000</v>
       </c>
       <c r="F19">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G19">
+        <v>1620</v>
+      </c>
+      <c r="H19">
+        <v>0.09068888888888889</v>
+      </c>
+      <c r="I19">
+        <v>4081</v>
+      </c>
+      <c r="J19">
+        <v>39299</v>
+      </c>
+      <c r="K19">
         <v>24750</v>
       </c>
     </row>
@@ -982,9 +1215,21 @@
         <v>28000</v>
       </c>
       <c r="F20">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G20">
+        <v>1008</v>
+      </c>
+      <c r="H20">
+        <v>0.14575</v>
+      </c>
+      <c r="I20">
+        <v>4081</v>
+      </c>
+      <c r="J20">
+        <v>22911</v>
+      </c>
+      <c r="K20">
         <v>15400</v>
       </c>
     </row>
@@ -1004,7 +1249,7 @@
           <t>Elvis Molina</t>
         </is>
       </c>
-      <c r="G21">
+      <c r="K21">
         <v>-50000</v>
       </c>
     </row>
@@ -1024,7 +1269,7 @@
           <t>Elvis Molina</t>
         </is>
       </c>
-      <c r="G22">
+      <c r="K22">
         <v>-17000</v>
       </c>
     </row>
@@ -1044,7 +1289,7 @@
           <t>Elvis Molina</t>
         </is>
       </c>
-      <c r="G23">
+      <c r="K23">
         <v>-20000</v>
       </c>
     </row>
@@ -1064,7 +1309,7 @@
           <t>Elvis Molina</t>
         </is>
       </c>
-      <c r="G24">
+      <c r="K24">
         <v>-80000</v>
       </c>
     </row>
@@ -1084,8 +1329,48 @@
           <t>Elvis Molina</t>
         </is>
       </c>
-      <c r="G25">
+      <c r="K25">
         <v>-30000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Descuento - Producto - Productos de Color</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Elvis Molina</t>
+        </is>
+      </c>
+      <c r="K26">
+        <v>-50361</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Descuento - Producto - Productos de Color</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Elvis Molina</t>
+        </is>
+      </c>
+      <c r="K27">
+        <v>-35895</v>
       </c>
     </row>
   </sheetData>
